--- a/data.xlsx
+++ b/data.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Homa_Rayaneh\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA37D7F4-000A-41FF-8797-FC2B99AC549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B3D36A4-6B93-4080-B285-DBFDDE8DCBAC}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0" concurrentManualCount="4"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>material 1</t>
-  </si>
-  <si>
-    <t>material 2</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -118,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -182,32 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -234,24 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -263,827 +256,876 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75007F2-3259-440F-BDDA-63679D4F43BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Years</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>material 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>material 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1990</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>39343</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>200</v>
       </c>
-      <c r="D2">
-        <v>89.6</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="E2" t="n">
         <v>103</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>1991</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>46205</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>212</v>
       </c>
-      <c r="D3">
-        <v>92.662499999999994</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>92.66249999999999</v>
+      </c>
+      <c r="E3" t="n">
         <v>104</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>1992</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>37731</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>224.72</v>
       </c>
-      <c r="D4">
-        <v>95.807249999999996</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>95.80725</v>
+      </c>
+      <c r="E4" t="n">
         <v>101</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>1451</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>1993</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>43525</v>
       </c>
-      <c r="C5">
-        <v>238.20320000000001</v>
-      </c>
-      <c r="D5">
-        <v>99.034818749999999</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="n">
+        <v>238.2032</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.03481875</v>
+      </c>
+      <c r="E5" t="n">
         <v>99</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1593</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>1994</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>39891</v>
       </c>
-      <c r="C6">
-        <v>252.49539200000001</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>252.495392</v>
+      </c>
+      <c r="D6" t="n">
         <v>102.34562625</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>95</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1718.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>1995</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>56642</v>
       </c>
-      <c r="C7">
-        <v>267.64511551999999</v>
-      </c>
-      <c r="D7">
-        <v>105.73992745312501</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="n">
+        <v>267.64511552</v>
+      </c>
+      <c r="D7" t="n">
+        <v>105.739927453125</v>
+      </c>
+      <c r="E7" t="n">
         <v>96</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>1844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>1996</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>60150</v>
       </c>
-      <c r="C8">
-        <v>283.70382245119998</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="n">
+        <v>283.7038224512</v>
+      </c>
+      <c r="D8" t="n">
         <v>109.217794710937</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>95</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>1969.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>1997</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>54445</v>
       </c>
-      <c r="C9">
-        <v>300.72605179827201</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>300.726051798272</v>
+      </c>
+      <c r="D9" t="n">
         <v>112.779098875898</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>92</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>2095</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>1998</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>64445</v>
       </c>
-      <c r="C10">
-        <v>318.76961490616799</v>
-      </c>
-      <c r="D10">
-        <v>116.42348897057801</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="n">
+        <v>318.769614906168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>116.423488970578</v>
+      </c>
+      <c r="E10" t="n">
         <v>92</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>2220.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>1999</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>57189</v>
       </c>
-      <c r="C11">
-        <v>337.89579180053801</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="n">
+        <v>337.895791800538</v>
+      </c>
+      <c r="D11" t="n">
         <v>120.150370327536</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>87</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>2346</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>2000</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>63218</v>
       </c>
-      <c r="C12">
-        <v>358.16953930856999</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="n">
+        <v>358.16953930857</v>
+      </c>
+      <c r="D12" t="n">
         <v>123.958881097763</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>84</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>2471.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>2001</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>55794</v>
       </c>
-      <c r="C13">
-        <v>379.65971166708499</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="n">
+        <v>379.659711667085</v>
+      </c>
+      <c r="D13" t="n">
         <v>127.847867019194</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>86</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>2597</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>2002</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>56957</v>
       </c>
-      <c r="C14">
-        <v>402.43929436710999</v>
-      </c>
-      <c r="D14">
+      <c r="C14" t="n">
+        <v>402.43929436711</v>
+      </c>
+      <c r="D14" t="n">
         <v>131.815854330024</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>87</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>2722.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>2003</v>
       </c>
-      <c r="C15">
-        <v>426.58565202913599</v>
-      </c>
-      <c r="D15">
-        <v>135.86102070438901</v>
-      </c>
-      <c r="E15">
+      <c r="B15" t="n">
+        <v>57019</v>
+      </c>
+      <c r="C15" t="n">
+        <v>426.585652029136</v>
+      </c>
+      <c r="D15" t="n">
+        <v>135.861020704389</v>
+      </c>
+      <c r="E15" t="n">
         <v>78</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>2848</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>2004</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>57081</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>452.180791150885</v>
       </c>
-      <c r="D16">
-        <v>139.98116408036501</v>
-      </c>
-      <c r="E16">
+      <c r="D16" t="n">
+        <v>139.981164080365</v>
+      </c>
+      <c r="E16" t="n">
         <v>79</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>2973.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>2005</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>61111</v>
       </c>
-      <c r="C17">
-        <v>479.31163861993798</v>
-      </c>
-      <c r="D17">
-        <v>144.17366924217799</v>
-      </c>
-      <c r="E17">
+      <c r="C17" t="n">
+        <v>479.311638619938</v>
+      </c>
+      <c r="D17" t="n">
+        <v>144.173669242178</v>
+      </c>
+      <c r="E17" t="n">
         <v>78</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>3099</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>2006</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>67938</v>
       </c>
-      <c r="C18">
-        <v>508.07033693713402</v>
-      </c>
-      <c r="D18">
-        <v>148.43547200997099</v>
-      </c>
-      <c r="E18">
+      <c r="C18" t="n">
+        <v>508.070336937134</v>
+      </c>
+      <c r="D18" t="n">
+        <v>148.435472009971</v>
+      </c>
+      <c r="E18" t="n">
         <v>78</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>3224.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>2007</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>66029</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>538.554557153362</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>152.763020881438</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>71</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>3350</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>2008</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>83088</v>
       </c>
-      <c r="C20">
-        <v>570.86783058256401</v>
-      </c>
-      <c r="D20">
-        <v>157.15223596002701</v>
-      </c>
-      <c r="E20">
+      <c r="C20" t="n">
+        <v>570.867830582564</v>
+      </c>
+      <c r="D20" t="n">
+        <v>157.152235960027</v>
+      </c>
+      <c r="E20" t="n">
         <v>73</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>3475.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>2009</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>81363</v>
       </c>
-      <c r="C21">
-        <v>605.11990041751801</v>
-      </c>
-      <c r="D21">
-        <v>161.59846499427201</v>
-      </c>
-      <c r="E21">
+      <c r="C21" t="n">
+        <v>605.119900417518</v>
+      </c>
+      <c r="D21" t="n">
+        <v>161.598464994272</v>
+      </c>
+      <c r="E21" t="n">
         <v>72</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>3601</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>2010</v>
       </c>
-      <c r="C22">
+      <c r="B22" t="n">
+        <v>87651.5</v>
+      </c>
+      <c r="C22" t="n">
         <v>641.427094442569</v>
       </c>
-      <c r="D22">
-        <v>166.09643634203999</v>
-      </c>
-      <c r="E22">
+      <c r="D22" t="n">
+        <v>166.09643634204</v>
+      </c>
+      <c r="E22" t="n">
         <v>71</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>3726.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>2011</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>93940</v>
       </c>
-      <c r="C23">
-        <v>679.91272010912303</v>
-      </c>
-      <c r="D23">
-        <v>170.64020866210001</v>
-      </c>
-      <c r="E23">
+      <c r="C23" t="n">
+        <v>679.912720109123</v>
+      </c>
+      <c r="D23" t="n">
+        <v>170.6402086621</v>
+      </c>
+      <c r="E23" t="n">
         <v>67</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>3852</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>2012</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>91738</v>
       </c>
-      <c r="C24">
-        <v>720.70748331567097</v>
-      </c>
-      <c r="D24">
+      <c r="C24" t="n">
+        <v>720.707483315671</v>
+      </c>
+      <c r="D24" t="n">
         <v>175.223117123311</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>70</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>3977.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>2013</v>
       </c>
-      <c r="C25">
-        <v>763.94993231461103</v>
-      </c>
-      <c r="D25">
-        <v>179.83771590898701</v>
-      </c>
-      <c r="E25">
+      <c r="B25" t="n">
+        <v>95005.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>763.949932314611</v>
+      </c>
+      <c r="D25" t="n">
+        <v>179.837715908987</v>
+      </c>
+      <c r="E25" t="n">
         <v>69</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>4103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>2014</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>98273</v>
       </c>
-      <c r="C26">
-        <v>809.78692825348799</v>
-      </c>
-      <c r="D26">
+      <c r="C26" t="n">
+        <v>809.786928253488</v>
+      </c>
+      <c r="D26" t="n">
         <v>184.475716780423</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>68</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>4228.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>2015</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>101302</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>858.374143948697</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>189.12792344923</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>63</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>4354</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>2016</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>113812</v>
       </c>
-      <c r="C28">
-        <v>909.87659258561905</v>
-      </c>
-      <c r="D28">
+      <c r="C28" t="n">
+        <v>909.8765925856191</v>
+      </c>
+      <c r="D28" t="n">
         <v>193.784161492967</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>64</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>4479.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>2017</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>109431</v>
       </c>
-      <c r="C29">
-        <v>964.46918814075605</v>
-      </c>
-      <c r="D29">
+      <c r="C29" t="n">
+        <v>964.469188140756</v>
+      </c>
+      <c r="D29" t="n">
         <v>198.433203532454</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>62</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>4605</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>2018</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>105582</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>1022.3373394292</v>
       </c>
-      <c r="D30">
-        <v>203.06268937215799</v>
-      </c>
-      <c r="E30">
+      <c r="D30" t="n">
+        <v>203.062689372158</v>
+      </c>
+      <c r="E30" t="n">
         <v>61</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>4730.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>2019</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>116969</v>
       </c>
-      <c r="C31">
-        <v>1083.6775797949499</v>
-      </c>
-      <c r="D31">
+      <c r="C31" t="n">
+        <v>1083.67757979495</v>
+      </c>
+      <c r="D31" t="n">
         <v>207.659040787001</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>62</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>4856</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>2020</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>112635</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>1148.69823458265</v>
       </c>
-      <c r="D32">
-        <v>212.20737061989701</v>
-      </c>
-      <c r="E32">
+      <c r="D32" t="n">
+        <v>212.207370619897</v>
+      </c>
+      <c r="E32" t="n">
         <v>59</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>4981.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>2021</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>122391</v>
       </c>
-      <c r="C33">
-        <v>1217.6201286576099</v>
-      </c>
-      <c r="D33">
-        <v>216.69138583411601</v>
-      </c>
-      <c r="E33">
+      <c r="C33" t="n">
+        <v>1217.62012865761</v>
+      </c>
+      <c r="D33" t="n">
+        <v>216.691385834116</v>
+      </c>
+      <c r="E33" t="n">
         <v>58</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>5107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" t="n">
         <v>2022</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" t="n">
         <v>121872</v>
       </c>
-      <c r="C34" s="1">
-        <v>1290.6773363770601</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" t="n">
+        <v>1290.67733637706</v>
+      </c>
+      <c r="D34" t="n">
         <v>221.093284143207</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" t="n">
         <v>57</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" t="n">
         <v>5232.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>